--- a/MainTop/08.11.2024/макс месяц с 08.10.2024 по 08.11.2024/печать.xlsx
+++ b/MainTop/08.11.2024/макс месяц с 08.10.2024 по 08.11.2024/печать.xlsx
@@ -601,8 +601,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G106" activeCellId="0" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4358,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>111</v>
@@ -4460,16 +4460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H113" s="1" t="n">
-        <f aca="false">SUM(H2:H112)</f>
-        <v>355</v>
-      </c>
-      <c r="I113" s="2" t="n">
-        <f aca="false">SUM(I2:I112)</f>
-        <v>466</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
